--- a/docs/excel/THoleCards.xlsx
+++ b/docs/excel/THoleCards.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -230,11 +230,40 @@
     </r>
   </si>
   <si>
-    <t>float</t>
+    <t>TableName: "THoleCards" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TableName: "THoleCards" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -275,6 +304,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -664,7 +699,7 @@
   <dimension ref="A1:D217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -701,7 +736,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -710,7 +745,9 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
@@ -729,7 +766,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="6">
-        <v>1.3</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -743,7 +780,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="6">
-        <v>2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -757,7 +794,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="6">
-        <v>3</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -771,7 +808,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="6">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -785,7 +822,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="6">
-        <v>15</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -799,7 +836,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="6">
-        <v>200</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2072,7 +2109,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/THoleCards.xlsx
+++ b/docs/excel/THoleCards.xlsx
@@ -699,7 +699,7 @@
   <dimension ref="A1:D217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -745,15 +745,15 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
